--- a/DesignDoc/CardLibrary.xlsx
+++ b/DesignDoc/CardLibrary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\R6C_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\SiegeTactics\SiegeTactics\DesignDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B73896-4493-48B6-9E3C-12477F7D8B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B317ABE-1374-4343-B45B-78CE4EB33EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{FFD96320-E16A-4A22-8FE4-AD96CB7CA0C5}"/>
+    <workbookView xWindow="-38010" yWindow="390" windowWidth="28800" windowHeight="15555" xr2:uid="{FFD96320-E16A-4A22-8FE4-AD96CB7CA0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,12 +583,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -603,8 +615,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893417B8-0E04-4E14-A7DD-266D70EB268C}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,1939 +946,1968 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>6</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>5</v>
       </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>8</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>8</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
         <v>5</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
         <v>5</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
         <v>6</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
         <v>6</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
         <v>7</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
         <v>7</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>6</v>
       </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="1">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
         <v>6</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>5</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>8</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>9</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>8</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61" s="1">
         <v>5</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
         <v>7</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64">
-        <v>4</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>5</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F65">
-        <v>4</v>
-      </c>
-      <c r="G65">
-        <v>4</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>5</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>7</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>7</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>5</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
         <v>5</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>5</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>12</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>6</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D69">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
         <v>5</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D70">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>9</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>7</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D71">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2">
         <v>5</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>5</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D72">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2">
         <v>5</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>5</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>7</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D73">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2">
         <v>5</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>6</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>5</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D74">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2">
         <v>5</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>3</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D75">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2">
         <v>5</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>6</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>7</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D76">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2">
         <v>5</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="2">
+        <v>3</v>
+      </c>
+      <c r="G76" s="2">
         <v>9</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D77">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2">
         <v>6</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>6</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>9</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D78">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2">
         <v>6</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>5</v>
       </c>
-      <c r="G78">
-        <v>4</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="G78" s="2">
+        <v>4</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D79">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2">
         <v>6</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>7</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>7</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D80">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2">
         <v>6</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
+      <c r="F80" s="2">
+        <v>3</v>
+      </c>
+      <c r="G80" s="2">
         <v>6</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D81">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2">
         <v>6</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2">
         <v>8</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D82">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2">
         <v>6</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F82">
-        <v>4</v>
-      </c>
-      <c r="G82">
-        <v>4</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2">
+        <v>4</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D83">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2">
         <v>6</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>5</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>7</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D84">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2">
         <v>6</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>7</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>10</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H84" xr:uid="{104CD0FF-1B12-42B8-9BF6-324AEB9FF83D}"/>
